--- a/biology/Zoologie/Delias_belladonna/Delias_belladonna.xlsx
+++ b/biology/Zoologie/Delias_belladonna/Delias_belladonna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delias belladonna  est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Delias.
 </t>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Delias belladonna a été nommé par Johan Christian Fabricius en 1858.
-Synonymes :Papilio belladonna Fabricius, 1793; Delias hearseyi Butler, 1885; Delias surya Mitis, 1893[1].
-Noms vernaculaires
-Delias belladonna se nomme Hill Jezebel en anglais[1].
-Sous-espèces
-Delias belladonna belladonna
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias belladonna a été nommé par Johan Christian Fabricius en 1858.
+Synonymes :Papilio belladonna Fabricius, 1793; Delias hearseyi Butler, 1885; Delias surya Mitis, 1893.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias belladonna se nomme Hill Jezebel en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Delias belladonna belladonna
 Delias belladonna chrysorrhoea (Vollenhoven, 1865) à Sumatra
 Delias belladonna endoi Yagishita, 1993, dans le sud du Vietnam.
 Delias belladonna hedybia Jordan, 1925, en Birmanie et Thaïlande.
@@ -532,71 +616,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Delias_belladonna</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon d'une envergure de 70 à 98 mm présente une couleur diverse suivant les sous-espèces, noir pour l'espèce nominale mais pour les autres gris, marron vert ou bleu-violet, avec une ornementation semblable pour toutes[2]Le dessus de couleur foncée est très peu marqué de lignes submarginales de taches ovales plus claires.
-Le revers est orné sur le même fond de larges taches ovales jaune vif, d'une lignes  submarginales de plus petites taches ovales du même jaune vif et de quelques taches blanches.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delias_belladonna</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Loranthus vestitus et Loranthus longiflorus[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -618,16 +637,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon d'une envergure de 70 à 98 mm présente une couleur diverse suivant les sous-espèces, noir pour l'espèce nominale mais pour les autres gris, marron vert ou bleu-violet, avec une ornementation semblable pour toutesLe dessus de couleur foncée est très peu marqué de lignes submarginales de taches ovales plus claires.
+Le revers est orné sur le même fond de larges taches ovales jaune vif, d'une lignes  submarginales de plus petites taches ovales du même jaune vif et de quelques taches blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Loranthus vestitus et Loranthus longiflorus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est  un papillon de l'Asie du Sud-Est depuis l'Himalaya et le nord-ouest de l'Inde jusqu'à la Birmanie, la Thaïlande, le Laos, le sud du Vietnam, la Malaisie, Sumatra et le Sulawesi[1].
-Biotope
-Il réside en moyenne montagne.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est  un papillon de l'Asie du Sud-Est depuis l'Himalaya et le nord-ouest de l'Inde jusqu'à la Birmanie, la Thaïlande, le Laos, le sud du Vietnam, la Malaisie, Sumatra et le Sulawesi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en moyenne montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_belladonna</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
